--- a/GCLK_Calcs.xlsx
+++ b/GCLK_Calcs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\Git\motoractuatedvalve-controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D09089B-B182-492B-ADB4-8FDEE8E4912E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5239FF23-7C73-4FD6-8049-423D55B22BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{06819E8A-6F30-444A-8117-567B67C59326}"/>
   </bookViews>
@@ -223,7 +223,7 @@
     <t>Enabled by Default</t>
   </si>
   <si>
-    <t>Need to toggle?</t>
+    <t>Need to enable?</t>
   </si>
 </sst>
 </file>
@@ -332,7 +332,71 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -8417,7 +8481,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8452,7 +8516,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="b">
-        <f>C2&lt;&gt;B2</f>
+        <f>AND(C2, _xlfn.XOR(B2, TRUE))</f>
         <v>0</v>
       </c>
     </row>
@@ -8463,6 +8527,13 @@
       <c r="B3" t="b">
         <v>1</v>
       </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <f t="shared" ref="D3:D24" si="0">AND(C3, _xlfn.XOR(B3, TRUE))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
@@ -8471,6 +8542,13 @@
       <c r="B4" t="b">
         <v>1</v>
       </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
@@ -8479,6 +8557,13 @@
       <c r="B5" t="b">
         <v>1</v>
       </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
@@ -8487,6 +8572,13 @@
       <c r="B6" t="b">
         <v>1</v>
       </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
@@ -8495,6 +8587,13 @@
       <c r="B7" t="b">
         <v>1</v>
       </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
@@ -8503,6 +8602,13 @@
       <c r="B8" t="b">
         <v>1</v>
       </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
@@ -8511,6 +8617,13 @@
       <c r="B9" t="b">
         <v>1</v>
       </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
@@ -8519,6 +8632,13 @@
       <c r="B10" t="b">
         <v>1</v>
       </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
@@ -8527,6 +8647,13 @@
       <c r="B11" t="b">
         <v>1</v>
       </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
@@ -8535,6 +8662,13 @@
       <c r="B12" t="b">
         <v>1</v>
       </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
@@ -8543,6 +8677,13 @@
       <c r="B13" t="b">
         <v>1</v>
       </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
@@ -8551,6 +8692,13 @@
       <c r="B14" t="b">
         <v>0</v>
       </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
@@ -8559,6 +8707,13 @@
       <c r="B15" t="b">
         <v>0</v>
       </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
@@ -8567,72 +8722,143 @@
       <c r="B16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:D24">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>NOT(D2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>D2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
